--- a/lectures/lecture27/comparisons.xlsx
+++ b/lectures/lecture27/comparisons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/tjd_sfu_ca/Documents/courses/2022/120fall2022/public/cmpt120fall2022/lectures/lecture25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/tjd_sfu_ca/Documents/courses/2022/120fall2022/public/cmpt120fall2022/lectures/lecture27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{7A73501D-2697-40ED-92F4-5CDA90CE718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B160C058-7734-45AD-8479-49C1BB538298}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="8_{7A73501D-2697-40ED-92F4-5CDA90CE718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC652B84-FEBA-4675-B3D1-9B6C7C22E118}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="585" windowWidth="25740" windowHeight="19785" activeTab="4" xr2:uid="{66551588-0DA7-4B7A-9BA3-6AF9D74536E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" firstSheet="3" activeTab="6" xr2:uid="{66551588-0DA7-4B7A-9BA3-6AF9D74536E5}"/>
   </bookViews>
   <sheets>
     <sheet name="search real time" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="sort real time" sheetId="7" r:id="rId4"/>
     <sheet name="sort real time (2)" sheetId="8" r:id="rId5"/>
     <sheet name="sort theoretical" sheetId="6" r:id="rId6"/>
+    <sheet name="sorting comparisonSorting " sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="comp_time">'sorting comparisonSorting '!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,8 +44,238 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Toby Donaldson</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{86CA0086-7309-4C9D-8935-6C8644BA815A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100 thousand</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{86705CE2-22A3-46B4-A4AC-AA00F1CB3272}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 million</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{BA964E0E-C0A1-434D-B269-AAD094937CE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10 million</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{EC6C4935-92E7-4779-A479-1C6BC033EA5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100 million</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{1F87AC5E-B08A-45F5-AA90-2D0F3CBB4EA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 million</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{2AC933AC-0449-4B3C-B752-5102DA02ECA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100 thousand</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{BF7C7FAE-5116-4FF6-B7AD-00B0207C8881}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 million</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{8078F9D9-BEE4-4499-B453-F6CC0241DE9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10 million</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{6FBDDACC-1B33-482D-8EDD-AD5D295C89D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100 million</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{58410402-2CBB-466B-B1E1-E36B67E83B75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 million</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t># of items</t>
   </si>
@@ -81,6 +315,39 @@
   <si>
     <t>built-in  sort</t>
   </si>
+  <si>
+    <t>Sorting Running Time Comparison</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t># items</t>
+  </si>
+  <si>
+    <t># comps</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
+  </si>
+  <si>
+    <t>seconds to do 1 comparision</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +357,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +380,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +404,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -137,11 +435,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -153,9 +454,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
+    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10947,10 +11262,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11254,16 +11565,16 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="14.7265625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11286,7 +11597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -11312,7 +11623,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11000</v>
       </c>
@@ -11338,7 +11649,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12000</v>
       </c>
@@ -11364,7 +11675,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>13000</v>
       </c>
@@ -11390,7 +11701,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>14000</v>
       </c>
@@ -11416,7 +11727,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>15000</v>
       </c>
@@ -11442,7 +11753,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>16000</v>
       </c>
@@ -11468,7 +11779,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>17000</v>
       </c>
@@ -11494,7 +11805,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>18000</v>
       </c>
@@ -11520,7 +11831,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>19000</v>
       </c>
@@ -11546,7 +11857,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20000</v>
       </c>
@@ -11572,7 +11883,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E13" s="6">
         <f>SUM(E2:E12)</f>
         <v>59.825000000000003</v>
@@ -11590,7 +11901,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E14" s="8">
         <f>E13/SUM(E13:G13)</f>
         <v>9.3373705527504861E-2</v>
@@ -11622,14 +11933,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11640,7 +11951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -11651,7 +11962,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -11662,7 +11973,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -11673,7 +11984,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -11684,7 +11995,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -11695,7 +12006,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -11706,7 +12017,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -11717,7 +12028,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -11728,7 +12039,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -11739,7 +12050,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -11764,14 +12075,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11782,7 +12093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11795,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -11809,7 +12120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A42" si="2">A4+1</f>
         <v>3</v>
@@ -11823,7 +12134,7 @@
         <v>1.5849625007211563</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -11837,7 +12148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -11851,7 +12162,7 @@
         <v>2.3219280948873622</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -11865,7 +12176,7 @@
         <v>2.5849625007211561</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -11879,7 +12190,7 @@
         <v>2.8073549220576042</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -11893,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -11907,7 +12218,7 @@
         <v>3.1699250014423126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -11921,7 +12232,7 @@
         <v>3.3219280948873626</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -11935,7 +12246,7 @@
         <v>3.4594316186372978</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -11949,7 +12260,7 @@
         <v>3.5849625007211565</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -11963,7 +12274,7 @@
         <v>3.7004397181410922</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -11977,7 +12288,7 @@
         <v>3.8073549220576037</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -11991,7 +12302,7 @@
         <v>3.9068905956085187</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -12005,7 +12316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -12019,7 +12330,7 @@
         <v>4.08746284125034</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -12033,7 +12344,7 @@
         <v>4.1699250014423122</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -12047,7 +12358,7 @@
         <v>4.2479275134435852</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -12061,7 +12372,7 @@
         <v>4.3219280948873626</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -12075,7 +12386,7 @@
         <v>4.3923174227787607</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -12089,7 +12400,7 @@
         <v>4.4594316186372973</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -12103,7 +12414,7 @@
         <v>4.5235619560570131</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -12117,7 +12428,7 @@
         <v>4.584962500721157</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -12131,7 +12442,7 @@
         <v>4.6438561897747244</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -12145,7 +12456,7 @@
         <v>4.7004397181410926</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -12159,7 +12470,7 @@
         <v>4.7548875021634691</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -12173,7 +12484,7 @@
         <v>4.8073549220576037</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -12187,7 +12498,7 @@
         <v>4.8579809951275728</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -12201,7 +12512,7 @@
         <v>4.9068905956085187</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -12215,7 +12526,7 @@
         <v>4.9541963103868758</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -12229,7 +12540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -12243,7 +12554,7 @@
         <v>5.0443941193584534</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -12257,7 +12568,7 @@
         <v>5.08746284125034</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -12271,7 +12582,7 @@
         <v>5.1292830169449664</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -12285,7 +12596,7 @@
         <v>5.1699250014423122</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -12299,7 +12610,7 @@
         <v>5.2094533656289501</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -12313,7 +12624,7 @@
         <v>5.2479275134435852</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -12327,7 +12638,7 @@
         <v>5.2854022188622487</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -12355,12 +12666,12 @@
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -12374,7 +12685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -12388,7 +12699,7 @@
         <v>8.0599999999999994E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200</v>
       </c>
@@ -12402,7 +12713,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>300</v>
       </c>
@@ -12416,7 +12727,7 @@
         <v>5.1329999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>400</v>
       </c>
@@ -12430,7 +12741,7 @@
         <v>8.9170000000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>500</v>
       </c>
@@ -12444,7 +12755,7 @@
         <v>1.341E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>600</v>
       </c>
@@ -12458,7 +12769,7 @@
         <v>1.9545000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>700</v>
       </c>
@@ -12472,7 +12783,7 @@
         <v>2.5639E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>800</v>
       </c>
@@ -12486,7 +12797,7 @@
         <v>3.3449999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>900</v>
       </c>
@@ -12500,7 +12811,7 @@
         <v>4.1913000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -12514,7 +12825,7 @@
         <v>5.1709E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -12528,7 +12839,7 @@
         <v>6.2211000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -12542,7 +12853,7 @@
         <v>7.3232999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -12556,7 +12867,7 @@
         <v>8.7402999999999995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -12570,7 +12881,7 @@
         <v>9.9336000000000008E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -12584,7 +12895,7 @@
         <v>1.2386100000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -12598,7 +12909,7 @@
         <v>1.31194E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -12612,7 +12923,7 @@
         <v>1.48101E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -12626,7 +12937,7 @@
         <v>1.6393100000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -12640,7 +12951,7 @@
         <v>1.8144400000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -12654,7 +12965,7 @@
         <v>2.0347299999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -12668,7 +12979,7 @@
         <v>2.2321000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -12682,7 +12993,7 @@
         <v>2.4334000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -12696,7 +13007,7 @@
         <v>2.7406E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -12710,7 +13021,7 @@
         <v>2.92333E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -12724,7 +13035,7 @@
         <v>3.1150199999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -12738,7 +13049,7 @@
         <v>3.3686399999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -12752,7 +13063,7 @@
         <v>3.6293400000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -12766,7 +13077,7 @@
         <v>3.9323799999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -12780,7 +13091,7 @@
         <v>4.1964300000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -12794,7 +13105,7 @@
         <v>4.5428799999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -12808,7 +13119,7 @@
         <v>4.7848500000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -12822,7 +13133,7 @@
         <v>5.27211E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -12836,7 +13147,7 @@
         <v>5.4263699999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -12850,7 +13161,7 @@
         <v>5.8464000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -12864,7 +13175,7 @@
         <v>6.0827600000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -12878,7 +13189,7 @@
         <v>6.4449300000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -12892,7 +13203,7 @@
         <v>6.8271100000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -12906,7 +13217,7 @@
         <v>7.2775099999999995E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -12920,7 +13231,7 @@
         <v>7.57414E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -12934,7 +13245,7 @@
         <v>7.9563400000000006E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -12948,7 +13259,7 @@
         <v>8.6597400000000005E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -12962,7 +13273,7 @@
         <v>9.3038800000000005E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -12976,7 +13287,7 @@
         <v>0.1078862</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -12990,7 +13301,7 @@
         <v>9.8052200000000006E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -13004,7 +13315,7 @@
         <v>0.1013607</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -13018,7 +13329,7 @@
         <v>0.11117390000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -13032,7 +13343,7 @@
         <v>0.1109009</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -13046,7 +13357,7 @@
         <v>0.11585380000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -13060,7 +13371,7 @@
         <v>0.12637280000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -13074,7 +13385,7 @@
         <v>0.12802939999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -13088,7 +13399,7 @@
         <v>0.13313140000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -13102,7 +13413,7 @@
         <v>0.1382825</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -13116,7 +13427,7 @@
         <v>0.1453894</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -13130,7 +13441,7 @@
         <v>0.14634900000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -13144,7 +13455,7 @@
         <v>0.15475659999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -13158,7 +13469,7 @@
         <v>0.15788550000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -13172,7 +13483,7 @@
         <v>0.1661416</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -13186,7 +13497,7 @@
         <v>0.176315</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -13200,7 +13511,7 @@
         <v>0.18051310000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -13214,7 +13525,7 @@
         <v>0.18729229999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -13228,7 +13539,7 @@
         <v>0.19331219999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -13242,7 +13553,7 @@
         <v>0.2028269</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -13256,7 +13567,7 @@
         <v>0.20132320000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -13270,7 +13581,7 @@
         <v>0.2116024</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -13284,7 +13595,7 @@
         <v>0.22314020000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -13298,7 +13609,7 @@
         <v>0.23966770000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -13312,7 +13623,7 @@
         <v>0.2411517</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -13326,7 +13637,7 @@
         <v>0.23630960000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -13340,7 +13651,7 @@
         <v>0.2446547</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -13354,7 +13665,7 @@
         <v>0.2748294</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -13368,7 +13679,7 @@
         <v>0.28590189999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -13382,7 +13693,7 @@
         <v>0.28096510000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -13396,7 +13707,7 @@
         <v>0.28664899999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -13410,7 +13721,7 @@
         <v>0.29992479999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -13424,7 +13735,7 @@
         <v>0.32065769999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -13438,7 +13749,7 @@
         <v>0.35850690000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -13452,7 +13763,7 @@
         <v>0.31895050000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -13466,7 +13777,7 @@
         <v>0.34689039999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -13480,7 +13791,7 @@
         <v>0.34608729999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -13494,7 +13805,7 @@
         <v>0.34440470000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -13508,7 +13819,7 @@
         <v>0.36258479999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -13522,7 +13833,7 @@
         <v>0.37448019999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -13536,7 +13847,7 @@
         <v>0.38302829999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -13550,7 +13861,7 @@
         <v>0.39837250000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -13564,7 +13875,7 @@
         <v>0.39837549999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -13578,7 +13889,7 @@
         <v>0.4039683</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -13592,7 +13903,7 @@
         <v>0.42546230000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -13606,7 +13917,7 @@
         <v>0.44606649999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -13620,7 +13931,7 @@
         <v>0.45598919999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -13634,7 +13945,7 @@
         <v>0.4554781</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -13648,7 +13959,7 @@
         <v>0.46051409999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -13662,7 +13973,7 @@
         <v>0.50349659999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -13676,7 +13987,7 @@
         <v>0.5254799</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -13690,7 +14001,7 @@
         <v>0.5085539</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -13704,7 +14015,7 @@
         <v>0.50247090000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -13718,7 +14029,7 @@
         <v>0.52903299999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -13732,7 +14043,7 @@
         <v>0.54521410000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -13746,7 +14057,7 @@
         <v>0.54395769999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -13760,7 +14071,7 @@
         <v>0.56953980000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -13774,7 +14085,7 @@
         <v>0.56576289999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B102" s="5">
         <f>SUM(B2:B101)</f>
         <v>3.9738799999999984E-2</v>
@@ -13791,7 +14102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <f>B102/SUM(B102:D102)</f>
         <v>1.985231668444669E-3</v>
@@ -13818,16 +14129,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90A4C6-52B2-4412-AEF9-02D1294DCAC8}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13838,7 +14149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -13849,7 +14160,7 @@
         <v>8.0599999999999994E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200</v>
       </c>
@@ -13860,7 +14171,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>300</v>
       </c>
@@ -13871,7 +14182,7 @@
         <v>5.1329999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>400</v>
       </c>
@@ -13882,7 +14193,7 @@
         <v>8.9170000000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>500</v>
       </c>
@@ -13893,7 +14204,7 @@
         <v>1.341E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>600</v>
       </c>
@@ -13904,7 +14215,7 @@
         <v>1.9545000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>700</v>
       </c>
@@ -13915,7 +14226,7 @@
         <v>2.5639E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>800</v>
       </c>
@@ -13926,7 +14237,7 @@
         <v>3.3449999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>900</v>
       </c>
@@ -13937,7 +14248,7 @@
         <v>4.1913000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -13948,7 +14259,7 @@
         <v>5.1709E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -13959,7 +14270,7 @@
         <v>6.2211000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -13970,7 +14281,7 @@
         <v>7.3232999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -13981,7 +14292,7 @@
         <v>8.7402999999999995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -13992,7 +14303,7 @@
         <v>9.9336000000000008E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -14003,7 +14314,7 @@
         <v>1.2386100000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -14014,7 +14325,7 @@
         <v>1.31194E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -14025,7 +14336,7 @@
         <v>1.48101E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -14036,7 +14347,7 @@
         <v>1.6393100000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -14047,7 +14358,7 @@
         <v>1.8144400000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -14058,7 +14369,7 @@
         <v>2.0347299999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -14069,7 +14380,7 @@
         <v>2.2321000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -14080,7 +14391,7 @@
         <v>2.4334000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -14091,7 +14402,7 @@
         <v>2.7406E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -14102,7 +14413,7 @@
         <v>2.92333E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -14113,7 +14424,7 @@
         <v>3.1150199999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -14124,7 +14435,7 @@
         <v>3.3686399999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -14135,7 +14446,7 @@
         <v>3.6293400000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -14146,7 +14457,7 @@
         <v>3.9323799999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -14157,7 +14468,7 @@
         <v>4.1964300000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -14168,7 +14479,7 @@
         <v>4.5428799999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -14179,7 +14490,7 @@
         <v>4.7848500000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -14190,7 +14501,7 @@
         <v>5.27211E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -14201,7 +14512,7 @@
         <v>5.4263699999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -14212,7 +14523,7 @@
         <v>5.8464000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -14223,7 +14534,7 @@
         <v>6.0827600000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -14234,7 +14545,7 @@
         <v>6.4449300000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -14245,7 +14556,7 @@
         <v>6.8271100000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -14256,7 +14567,7 @@
         <v>7.2775099999999995E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -14267,7 +14578,7 @@
         <v>7.57414E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -14278,7 +14589,7 @@
         <v>7.9563400000000006E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -14289,7 +14600,7 @@
         <v>8.6597400000000005E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -14300,7 +14611,7 @@
         <v>9.3038800000000005E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -14311,7 +14622,7 @@
         <v>0.1078862</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -14322,7 +14633,7 @@
         <v>9.8052200000000006E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -14333,7 +14644,7 @@
         <v>0.1013607</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -14344,7 +14655,7 @@
         <v>0.11117390000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -14355,7 +14666,7 @@
         <v>0.1109009</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -14366,7 +14677,7 @@
         <v>0.11585380000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -14377,7 +14688,7 @@
         <v>0.12637280000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -14388,7 +14699,7 @@
         <v>0.12802939999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -14399,7 +14710,7 @@
         <v>0.13313140000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -14410,7 +14721,7 @@
         <v>0.1382825</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -14421,7 +14732,7 @@
         <v>0.1453894</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -14432,7 +14743,7 @@
         <v>0.14634900000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -14443,7 +14754,7 @@
         <v>0.15475659999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -14454,7 +14765,7 @@
         <v>0.15788550000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -14465,7 +14776,7 @@
         <v>0.1661416</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -14476,7 +14787,7 @@
         <v>0.176315</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -14487,7 +14798,7 @@
         <v>0.18051310000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -14498,7 +14809,7 @@
         <v>0.18729229999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -14509,7 +14820,7 @@
         <v>0.19331219999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -14520,7 +14831,7 @@
         <v>0.2028269</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -14531,7 +14842,7 @@
         <v>0.20132320000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -14542,7 +14853,7 @@
         <v>0.2116024</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -14553,7 +14864,7 @@
         <v>0.22314020000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -14564,7 +14875,7 @@
         <v>0.23966770000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -14575,7 +14886,7 @@
         <v>0.2411517</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -14586,7 +14897,7 @@
         <v>0.23630960000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -14597,7 +14908,7 @@
         <v>0.2446547</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -14608,7 +14919,7 @@
         <v>0.2748294</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -14619,7 +14930,7 @@
         <v>0.28590189999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -14630,7 +14941,7 @@
         <v>0.28096510000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -14641,7 +14952,7 @@
         <v>0.28664899999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -14652,7 +14963,7 @@
         <v>0.29992479999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -14663,7 +14974,7 @@
         <v>0.32065769999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -14674,7 +14985,7 @@
         <v>0.35850690000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -14685,7 +14996,7 @@
         <v>0.31895050000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -14696,7 +15007,7 @@
         <v>0.34689039999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -14707,7 +15018,7 @@
         <v>0.34608729999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -14718,7 +15029,7 @@
         <v>0.34440470000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -14729,7 +15040,7 @@
         <v>0.36258479999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -14740,7 +15051,7 @@
         <v>0.37448019999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -14751,7 +15062,7 @@
         <v>0.38302829999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -14762,7 +15073,7 @@
         <v>0.39837250000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -14773,7 +15084,7 @@
         <v>0.39837549999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -14784,7 +15095,7 @@
         <v>0.4039683</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -14795,7 +15106,7 @@
         <v>0.42546230000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -14806,7 +15117,7 @@
         <v>0.44606649999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -14817,7 +15128,7 @@
         <v>0.45598919999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -14828,7 +15139,7 @@
         <v>0.4554781</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -14839,7 +15150,7 @@
         <v>0.46051409999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -14850,7 +15161,7 @@
         <v>0.50349659999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -14861,7 +15172,7 @@
         <v>0.5254799</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -14872,7 +15183,7 @@
         <v>0.5085539</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -14883,7 +15194,7 @@
         <v>0.50247090000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -14894,7 +15205,7 @@
         <v>0.52903299999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -14905,7 +15216,7 @@
         <v>0.54521410000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -14916,7 +15227,7 @@
         <v>0.54395769999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -14927,7 +15238,7 @@
         <v>0.56953980000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -14938,7 +15249,7 @@
         <v>0.56576289999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" s="5">
         <f t="shared" ref="B102:C102" si="0">SUM(B2:B101)</f>
         <v>1.3827868999999999</v>
@@ -14951,7 +15262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <f>B102/SUM(B102:C102)</f>
         <v>6.9217312765445252E-2</v>
@@ -14976,14 +15287,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -14994,7 +15305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15007,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -15021,7 +15332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A42" si="2">A4+1</f>
         <v>3</v>
@@ -15035,7 +15346,7 @@
         <v>4.7548875021634691</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -15049,7 +15360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -15063,7 +15374,7 @@
         <v>11.60964047443681</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -15077,7 +15388,7 @@
         <v>15.509775004326936</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -15091,7 +15402,7 @@
         <v>19.651484454403228</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -15105,7 +15416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -15119,7 +15430,7 @@
         <v>28.529325012980813</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -15133,7 +15444,7 @@
         <v>33.219280948873624</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -15147,7 +15458,7 @@
         <v>38.053747805010275</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -15161,7 +15472,7 @@
         <v>43.01955000865388</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -15175,7 +15486,7 @@
         <v>48.105716335834195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -15189,7 +15500,7 @@
         <v>53.302968908806449</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -15203,7 +15514,7 @@
         <v>58.603358934127783</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -15217,7 +15528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -15231,7 +15542,7 @@
         <v>69.486868301255782</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -15245,7 +15556,7 @@
         <v>75.058650025961612</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -15259,7 +15570,7 @@
         <v>80.710622755428119</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -15273,7 +15584,7 @@
         <v>86.438561897747249</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -15287,7 +15598,7 @@
         <v>92.23866587835397</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -15301,7 +15612,7 @@
         <v>98.107495610020536</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -15315,7 +15626,7 @@
         <v>104.0419249893113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -15329,7 +15640,7 @@
         <v>110.03910001730776</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -15343,7 +15654,7 @@
         <v>116.09640474436812</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -15357,7 +15668,7 @@
         <v>122.2114326716684</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -15371,7 +15682,7 @@
         <v>128.38196255841368</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -15385,7 +15696,7 @@
         <v>134.6059378176129</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -15399,7 +15710,7 @@
         <v>140.8814488586996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -15413,7 +15724,7 @@
         <v>147.20671786825557</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -15427,7 +15738,7 @@
         <v>153.58008562199316</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -15441,7 +15752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -15455,7 +15766,7 @@
         <v>166.46500593882897</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -15469,7 +15780,7 @@
         <v>172.97373660251156</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -15483,7 +15794,7 @@
         <v>179.52490559307381</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -15497,7 +15808,7 @@
         <v>186.11730005192322</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -15511,7 +15822,7 @@
         <v>192.74977452827116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -15525,7 +15836,7 @@
         <v>199.42124551085624</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -15539,7 +15850,7 @@
         <v>206.13068653562769</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -15557,4 +15868,658 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB074FD9-80B3-4EAF-BADD-26CFB8BF8339}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="5" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>A7*A7</f>
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <f>comp_time*B7</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <f>C7/60</f>
+        <v>1.6666666666666667E-5</v>
+      </c>
+      <c r="E7">
+        <f>D7/60</f>
+        <v>2.7777777777777781E-7</v>
+      </c>
+      <c r="F7">
+        <f>E7/24</f>
+        <v>1.1574074074074076E-8</v>
+      </c>
+      <c r="G7">
+        <f>F7/365</f>
+        <v>3.1709791983764592E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>A7*10</f>
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B15" si="0">A8*A8</f>
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <f>comp_time*B8</f>
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:E8" si="1">C8/60</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777779E-5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F15" si="2">E8/24</f>
+        <v>1.1574074074074074E-6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G15" si="3">F8/365</f>
+        <v>3.1709791983764586E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" ref="A9:A15" si="4">A8*10</f>
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C9">
+        <f>comp_time*B9</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="5">C9/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777775E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>3.1709791983764583E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+      <c r="C10">
+        <f>comp_time*B10</f>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" si="6">C10/60</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.1574074074074075E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>3.1709791983764592E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>10000000000</v>
+      </c>
+      <c r="C11">
+        <f>comp_time*B11</f>
+        <v>100000.00000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:E11" si="7">C11/60</f>
+        <v>1666.666666666667</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>27.777777777777782</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.1574074074074077</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.1709791983764593E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="C12">
+        <f>comp_time*B12</f>
+        <v>10000000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" si="8">C12/60</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>115.74074074074075</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.3170979198376459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>10000000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="C13">
+        <f>comp_time*B13</f>
+        <v>1000000000.0000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="9">C13/60</f>
+        <v>16666666.666666668</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="9"/>
+        <v>277777.77777777781</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>11574.074074074075</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="3"/>
+        <v>31.709791983764589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>100000000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="C14">
+        <f>comp_time*B14</f>
+        <v>100000000000.00002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:E14" si="10">C14/60</f>
+        <v>1666666666.666667</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="10"/>
+        <v>27777777.777777784</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1157407.4074074076</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>3170.9791983764594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>1000000000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1E+18</v>
+      </c>
+      <c r="C15">
+        <f>comp_time*B15</f>
+        <v>10000000000000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:E15" si="11">C15/60</f>
+        <v>166666666666.66666</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="11"/>
+        <v>2777777777.7777777</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>115740740.74074073</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>317097.91983764584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <f>A25*LOG(A25,2)</f>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="C25">
+        <f>comp_time*B25</f>
+        <v>3.3219280948873628E-4</v>
+      </c>
+      <c r="D25">
+        <f>C25/60</f>
+        <v>5.5365468248122714E-6</v>
+      </c>
+      <c r="E25">
+        <f>D25/60</f>
+        <v>9.2275780413537851E-8</v>
+      </c>
+      <c r="F25">
+        <f>E25/24</f>
+        <v>3.8448241838974107E-9</v>
+      </c>
+      <c r="G25">
+        <f>F25/365</f>
+        <v>1.0533764887390166E-11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f>A25*10</f>
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B33" si="12">A26*LOG(A26,2)</f>
+        <v>664.38561897747252</v>
+      </c>
+      <c r="C26">
+        <f>comp_time*B26</f>
+        <v>6.6438561897747255E-3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:E26" si="13">C26/60</f>
+        <v>1.1073093649624543E-4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="13"/>
+        <v>1.8455156082707571E-6</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F33" si="14">E26/24</f>
+        <v>7.6896483677948211E-8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G33" si="15">F26/365</f>
+        <v>2.1067529774780331E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" ref="A27:A33" si="16">A26*10</f>
+        <v>1000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="12"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="C27">
+        <f>comp_time*B27</f>
+        <v>9.9657842846620881E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="17">C27/60</f>
+        <v>1.6609640474436814E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="17"/>
+        <v>2.7682734124061356E-5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="14"/>
+        <v>1.1534472551692233E-6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="15"/>
+        <v>3.1601294662170502E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="12"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="C28">
+        <f>comp_time*B28</f>
+        <v>1.328771237954945</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="18">C28/60</f>
+        <v>2.2146187299249085E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="18"/>
+        <v>3.691031216541514E-4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="14"/>
+        <v>1.5379296735589642E-5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="15"/>
+        <v>4.2135059549560663E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="16"/>
+        <v>100000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="C29">
+        <f>comp_time*B29</f>
+        <v>16.609640474436812</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:E29" si="19">C29/60</f>
+        <v>0.27682734124061353</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="19"/>
+        <v>4.6137890206768926E-3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="14"/>
+        <v>1.9224120919487052E-4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
+        <v>5.2668824436950827E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="16"/>
+        <v>1000000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="C30">
+        <f>comp_time*B30</f>
+        <v>199.31568569324173</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E30" si="20">C30/60</f>
+        <v>3.3219280948873622</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="20"/>
+        <v>5.5365468248122704E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="14"/>
+        <v>2.3068945103384459E-3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="15"/>
+        <v>6.3202589324340984E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="16"/>
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="12"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="C31">
+        <f>comp_time*B31</f>
+        <v>2325.3496664211539</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:E31" si="21">C31/60</f>
+        <v>38.755827773685901</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="21"/>
+        <v>0.64593046289476497</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="14"/>
+        <v>2.6913769287281872E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="15"/>
+        <v>7.3736354211731154E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="16"/>
+        <v>100000000</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>2657542475.9098902</v>
+      </c>
+      <c r="C32">
+        <f>comp_time*B32</f>
+        <v>26575.424759098903</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:E32" si="22">C32/60</f>
+        <v>442.92374598498174</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="22"/>
+        <v>7.3820624330830293</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="14"/>
+        <v>0.30758593471179291</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="15"/>
+        <v>8.4270119099121347E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="16"/>
+        <v>1000000000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="12"/>
+        <v>29897352853.986263</v>
+      </c>
+      <c r="C33">
+        <f>comp_time*B33</f>
+        <v>298973.52853986266</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:E33" si="23">C33/60</f>
+        <v>4982.8921423310439</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="23"/>
+        <v>83.048202372184065</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="14"/>
+        <v>3.4603417655076694</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="15"/>
+        <v>9.4803883986511496E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>